--- a/docs/RV64MC-Instr.xlsx
+++ b/docs/RV64MC-Instr.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,6 +426,9 @@
       <c r="K2" t="str">
         <v>V</v>
       </c>
+      <c r="N2" t="str">
+        <v>OPSET</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -468,6 +471,9 @@
       <c r="J5" t="str">
         <v>funct6</v>
       </c>
+      <c r="N5" t="str">
+        <v>funct6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -547,9 +553,24 @@
         <v>mld</v>
       </c>
     </row>
+    <row r="9">
+      <c r="E9" t="str">
+        <v>000011</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="str">
+        <v>000100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="str">
+        <v>000101</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/RV64MC-Instr.xlsx
+++ b/docs/RV64MC-Instr.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,7 +472,7 @@
         <v>funct6</v>
       </c>
       <c r="N5" t="str">
-        <v>funct6</v>
+        <v>funct4</v>
       </c>
     </row>
     <row r="6">
@@ -503,6 +503,24 @@
       <c r="I6" t="str">
         <v>mdot</v>
       </c>
+      <c r="N6" t="str">
+        <v>0000</v>
+      </c>
+      <c r="O6" t="str">
+        <v>0</v>
+      </c>
+      <c r="P6" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>I</v>
+      </c>
+      <c r="R6" t="str">
+        <v>I</v>
+      </c>
+      <c r="S6" t="str">
+        <v>mvl</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -532,6 +550,18 @@
       <c r="I7" t="str">
         <v>mewmul</v>
       </c>
+      <c r="O7" t="str">
+        <v>0</v>
+      </c>
+      <c r="P7" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>I</v>
+      </c>
+      <c r="R7" t="str">
+        <v>X</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -552,25 +582,157 @@
       <c r="I8" t="str">
         <v>mld</v>
       </c>
+      <c r="O8" t="str">
+        <v>1</v>
+      </c>
+      <c r="P8" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>X</v>
+      </c>
+      <c r="R8" t="str">
+        <v>I</v>
+      </c>
     </row>
     <row r="9">
       <c r="E9" t="str">
         <v>000011</v>
       </c>
+      <c r="O9" t="str">
+        <v>1</v>
+      </c>
+      <c r="P9" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>X</v>
+      </c>
+      <c r="R9" t="str">
+        <v>X</v>
+      </c>
     </row>
     <row r="10">
       <c r="E10" t="str">
         <v>000100</v>
       </c>
+      <c r="N10" t="str">
+        <v>0001</v>
+      </c>
+      <c r="O10" t="str">
+        <v>0</v>
+      </c>
+      <c r="P10" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>I</v>
+      </c>
+      <c r="S10" t="str">
+        <v>mgpr</v>
+      </c>
     </row>
     <row r="11">
       <c r="E11" t="str">
         <v>000101</v>
       </c>
+      <c r="O11" t="str">
+        <v>0</v>
+      </c>
+      <c r="P11" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="N12" t="str">
+        <v>0010</v>
+      </c>
+      <c r="O12" t="str">
+        <v>0</v>
+      </c>
+      <c r="P12" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>I</v>
+      </c>
+      <c r="S12" t="str">
+        <v>p</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="O13" t="str">
+        <v>0</v>
+      </c>
+      <c r="P13" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="N14" t="str">
+        <v>0011</v>
+      </c>
+      <c r="O14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P14" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>I</v>
+      </c>
+      <c r="S14" t="str">
+        <v>vstart</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="O15" t="str">
+        <v>0</v>
+      </c>
+      <c r="P15" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="N16" t="str">
+        <v>0100</v>
+      </c>
+      <c r="O16" t="str">
+        <v>0</v>
+      </c>
+      <c r="P16" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>I</v>
+      </c>
+      <c r="S16" t="str">
+        <v>vl</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="O17" t="str">
+        <v>0</v>
+      </c>
+      <c r="P17" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>X</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/RV64MC-Instr.xlsx
+++ b/docs/RV64MC-Instr.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -461,70 +461,23 @@
         <v>X</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>funct6</v>
-      </c>
-      <c r="E5" t="str">
-        <v>funct6</v>
-      </c>
-      <c r="J5" t="str">
-        <v>funct6</v>
-      </c>
-      <c r="N5" t="str">
-        <v>funct4</v>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>000000</v>
-      </c>
-      <c r="B6" t="str">
-        <v>I</v>
-      </c>
-      <c r="C6" t="str">
-        <v>F(TODO)</v>
-      </c>
-      <c r="D6" t="str">
-        <v>madd</v>
+        <v>funct6</v>
       </c>
       <c r="E6" t="str">
-        <v>000000</v>
-      </c>
-      <c r="F6" t="str">
-        <v>V</v>
-      </c>
-      <c r="G6" t="str">
-        <v>I</v>
-      </c>
-      <c r="H6" t="str">
-        <v>X</v>
-      </c>
-      <c r="I6" t="str">
-        <v>mdot</v>
+        <v>funct6</v>
+      </c>
+      <c r="J6" t="str">
+        <v>funct6</v>
       </c>
       <c r="N6" t="str">
-        <v>0000</v>
-      </c>
-      <c r="O6" t="str">
-        <v>0</v>
-      </c>
-      <c r="P6" t="str">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="str">
-        <v>I</v>
-      </c>
-      <c r="R6" t="str">
-        <v>I</v>
-      </c>
-      <c r="S6" t="str">
-        <v>mvl</v>
+        <v>funct4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>000001</v>
+        <v>000000</v>
       </c>
       <c r="B7" t="str">
         <v>I</v>
@@ -533,10 +486,10 @@
         <v>F(TODO)</v>
       </c>
       <c r="D7" t="str">
-        <v>msub</v>
+        <v>madd</v>
       </c>
       <c r="E7" t="str">
-        <v>000001</v>
+        <v>000000</v>
       </c>
       <c r="F7" t="str">
         <v>V</v>
@@ -548,27 +501,42 @@
         <v>X</v>
       </c>
       <c r="I7" t="str">
-        <v>mewmul</v>
+        <v>mdot</v>
+      </c>
+      <c r="N7" t="str">
+        <v>0000</v>
       </c>
       <c r="O7" t="str">
         <v>0</v>
       </c>
       <c r="P7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="str">
         <v>I</v>
       </c>
       <c r="R7" t="str">
-        <v>X</v>
+        <v>I</v>
+      </c>
+      <c r="S7" t="str">
+        <v>mvl</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>000010</v>
+        <v>000001</v>
+      </c>
+      <c r="B8" t="str">
+        <v>I</v>
+      </c>
+      <c r="C8" t="str">
+        <v>F(TODO)</v>
+      </c>
+      <c r="D8" t="str">
+        <v>msub</v>
       </c>
       <c r="E8" t="str">
-        <v>000010</v>
+        <v>000001</v>
       </c>
       <c r="F8" t="str">
         <v>V</v>
@@ -580,159 +548,191 @@
         <v>X</v>
       </c>
       <c r="I8" t="str">
+        <v>mewmul</v>
+      </c>
+      <c r="O8" t="str">
+        <v>0</v>
+      </c>
+      <c r="P8" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>I</v>
+      </c>
+      <c r="R8" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>000010</v>
+      </c>
+      <c r="E9" t="str">
+        <v>000010</v>
+      </c>
+      <c r="F9" t="str">
+        <v>V</v>
+      </c>
+      <c r="G9" t="str">
+        <v>I</v>
+      </c>
+      <c r="H9" t="str">
+        <v>X</v>
+      </c>
+      <c r="I9" t="str">
         <v>mld</v>
-      </c>
-      <c r="O8" t="str">
-        <v>1</v>
-      </c>
-      <c r="P8" t="str">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="str">
-        <v>X</v>
-      </c>
-      <c r="R8" t="str">
-        <v>I</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="str">
-        <v>000011</v>
       </c>
       <c r="O9" t="str">
         <v>1</v>
       </c>
       <c r="P9" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="str">
         <v>X</v>
       </c>
       <c r="R9" t="str">
-        <v>X</v>
+        <v>I</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="str">
-        <v>000100</v>
-      </c>
-      <c r="N10" t="str">
-        <v>0001</v>
+        <v>000011</v>
       </c>
       <c r="O10" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="str">
-        <v>I</v>
-      </c>
-      <c r="S10" t="str">
-        <v>mgpr</v>
+        <v>X</v>
+      </c>
+      <c r="R10" t="str">
+        <v>X</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="str">
+        <v>000100</v>
+      </c>
+      <c r="N11" t="str">
+        <v>0001</v>
+      </c>
+      <c r="O11" t="str">
+        <v>0</v>
+      </c>
+      <c r="P11" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>I</v>
+      </c>
+      <c r="S11" t="str">
+        <v>mgpr</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="str">
         <v>000101</v>
       </c>
-      <c r="O11" t="str">
-        <v>0</v>
-      </c>
-      <c r="P11" t="str">
+      <c r="O12" t="str">
+        <v>0</v>
+      </c>
+      <c r="P12" t="str">
         <v>1</v>
       </c>
-      <c r="Q11" t="str">
-        <v>X</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="N12" t="str">
+      <c r="Q12" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="N13" t="str">
         <v>0010</v>
       </c>
-      <c r="O12" t="str">
-        <v>0</v>
-      </c>
-      <c r="P12" t="str">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="str">
-        <v>I</v>
-      </c>
-      <c r="S12" t="str">
+      <c r="O13" t="str">
+        <v>0</v>
+      </c>
+      <c r="P13" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>I</v>
+      </c>
+      <c r="S13" t="str">
         <v>p</v>
       </c>
     </row>
-    <row r="13">
-      <c r="O13" t="str">
-        <v>0</v>
-      </c>
-      <c r="P13" t="str">
+    <row r="14">
+      <c r="O14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P14" t="str">
         <v>1</v>
       </c>
-      <c r="Q13" t="str">
-        <v>X</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="N14" t="str">
+      <c r="Q14" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="N15" t="str">
         <v>0011</v>
       </c>
-      <c r="O14" t="str">
-        <v>0</v>
-      </c>
-      <c r="P14" t="str">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="str">
-        <v>I</v>
-      </c>
-      <c r="S14" t="str">
+      <c r="O15" t="str">
+        <v>0</v>
+      </c>
+      <c r="P15" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>I</v>
+      </c>
+      <c r="S15" t="str">
         <v>vstart</v>
       </c>
     </row>
-    <row r="15">
-      <c r="O15" t="str">
-        <v>0</v>
-      </c>
-      <c r="P15" t="str">
+    <row r="16">
+      <c r="O16" t="str">
+        <v>0</v>
+      </c>
+      <c r="P16" t="str">
         <v>1</v>
       </c>
-      <c r="Q15" t="str">
-        <v>X</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="N16" t="str">
+      <c r="Q16" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="N17" t="str">
         <v>0100</v>
       </c>
-      <c r="O16" t="str">
-        <v>0</v>
-      </c>
-      <c r="P16" t="str">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="str">
-        <v>I</v>
-      </c>
-      <c r="S16" t="str">
+      <c r="O17" t="str">
+        <v>0</v>
+      </c>
+      <c r="P17" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>I</v>
+      </c>
+      <c r="S17" t="str">
         <v>vl</v>
       </c>
     </row>
-    <row r="17">
-      <c r="O17" t="str">
-        <v>0</v>
-      </c>
-      <c r="P17" t="str">
+    <row r="18">
+      <c r="O18" t="str">
+        <v>0</v>
+      </c>
+      <c r="P18" t="str">
         <v>1</v>
       </c>
-      <c r="Q17" t="str">
+      <c r="Q18" t="str">
         <v>X</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/RV64MC-Instr.xlsx
+++ b/docs/RV64MC-Instr.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +637,10 @@
         <v>000101</v>
       </c>
       <c r="O12" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="str">
         <v>X</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="14">
       <c r="O14" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="str">
         <v>X</v>
@@ -693,10 +693,10 @@
     </row>
     <row r="16">
       <c r="O16" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="str">
         <v>X</v>
@@ -721,18 +721,43 @@
     </row>
     <row r="18">
       <c r="O18" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="N19" t="str">
+        <v>0101</v>
+      </c>
+      <c r="O19" t="str">
+        <v>0</v>
+      </c>
+      <c r="P19" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>I</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="O20" t="str">
+        <v>1</v>
+      </c>
+      <c r="P20" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="str">
         <v>X</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S20"/>
   </ignoredErrors>
 </worksheet>
 </file>